--- a/reports/corpus_wicaksono-unigram_bigram-fold-5.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram-fold-5.xlsx
@@ -582,88 +582,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9978260869565218</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9650655021834061</v>
+        <v>0.9868995633187773</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7647058823529411</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9133858267716536</v>
+        <v>0.926509186351706</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9745222929936306</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9433962264150944</v>
+        <v>0.969811320754717</v>
       </c>
       <c r="M2" t="n">
-        <v>0.63125</v>
+        <v>0.846875</v>
       </c>
       <c r="N2" t="n">
-        <v>0.864406779661017</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8793103448275862</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9874241110147441</v>
+        <v>0.9830875975715525</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5161290322580645</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="R2" t="n">
-        <v>0.4874274661508704</v>
+        <v>0.5764023210831721</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7263681592039801</v>
+        <v>0.900497512437811</v>
       </c>
       <c r="V2" t="n">
         <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8884615384615384</v>
+        <v>0.9653846153846154</v>
       </c>
       <c r="X2" t="n">
-        <v>0.5422885572139303</v>
+        <v>0.8159203980099502</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5357710651828299</v>
+        <v>0.7615262321144675</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.8442717328727691</v>
+        <v>0.9078871617731722</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7155908523124271</v>
+        <v>0.8467727742409675</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9019480706683117</v>
+        <v>0.9292375692038976</v>
       </c>
     </row>
     <row r="3">
@@ -676,22 +676,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9954954954954955</v>
+        <v>0.9955947136563876</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3428571428571429</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -700,28 +700,28 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9901960784313726</v>
+        <v>0.9926739926739927</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9807692307692307</v>
+        <v>0.9821428571428571</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6948428440646933</v>
+        <v>0.8076237976487353</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8895522388059701</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -730,31 +730,31 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9836956521739131</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9665271966527197</v>
+        <v>0.9691119691119691</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9478260869565217</v>
+        <v>0.9647058823529412</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9825072886297376</v>
+        <v>0.9795501022494888</v>
       </c>
       <c r="Z3" t="n">
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.8442717328727691</v>
+        <v>0.9078871617731722</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.8634079820504362</v>
+        <v>0.9098354702372743</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.8442717328727691</v>
+        <v>0.9078871617731722</v>
       </c>
     </row>
     <row r="4">
@@ -764,88 +764,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9978213507625272</v>
+        <v>0.9989118607181718</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9800443458980044</v>
+        <v>0.9912280701754385</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8125</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="H4" t="n">
-        <v>0.48</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9547325102880658</v>
+        <v>0.9618528610354223</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9870967741935484</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3283582089552239</v>
+        <v>0.575</v>
       </c>
       <c r="L4" t="n">
-        <v>0.970873786407767</v>
+        <v>0.9846743295019157</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7709923664122138</v>
+        <v>0.9139966273187184</v>
       </c>
       <c r="N4" t="n">
-        <v>0.918918918918919</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9357798165137614</v>
+        <v>0.9913043478260869</v>
       </c>
       <c r="P4" t="n">
-        <v>0.815690488984417</v>
+        <v>0.8867592411500098</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6597938144329898</v>
+        <v>0.7238095238095238</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6331658291457286</v>
+        <v>0.6995305164319249</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8414985590778098</v>
+        <v>0.9402597402597402</v>
       </c>
       <c r="V4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="W4" t="n">
-        <v>0.9258517034068137</v>
+        <v>0.9672447013487475</v>
       </c>
       <c r="X4" t="n">
-        <v>0.689873417721519</v>
+        <v>0.8840970350404312</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6934156378600824</v>
+        <v>0.8568872987477639</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8442717328727691</v>
+        <v>0.9078871617731722</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7578170854729011</v>
+        <v>0.8614484346575451</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.851286859754773</v>
+        <v>0.910723611069984</v>
       </c>
     </row>
     <row r="5">
@@ -855,82 +855,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>300</v>
       </c>
       <c r="E5" t="n">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I5" t="n">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J5" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L5" t="n">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="M5" t="n">
-        <v>204</v>
+        <v>273</v>
       </c>
       <c r="N5" t="n">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="O5" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P5" t="n">
-        <v>3277</v>
+        <v>2807</v>
       </c>
       <c r="Q5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R5" t="n">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="U5" t="n">
-        <v>146</v>
+        <v>184</v>
       </c>
       <c r="V5" t="n">
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="X5" t="n">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="Y5" t="n">
-        <v>343</v>
+        <v>489</v>
       </c>
       <c r="Z5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.8442717328727691</v>
+        <v>0.9078871617731722</v>
       </c>
       <c r="AB5" t="n">
         <v>6948</v>
